--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-S.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-S.RS0001.a205.xlsx
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-S.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-S.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,42 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +491,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +532,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1106,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1125,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'S': 225.0 ton, 2.23 COP liquid-cooled, centrifugal compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'S': 150.0-300.0 ton, 5.54 COP, 8.79 IPLV liquid-cooled, centrifugal compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1144,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>1f227b30-91a6-416b-855f-d431ecf4e404</t>
+          <t>c5542f64-1d0c-482b-975a-2176bcc4fa57</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1163,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1181,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1486,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>376802.3371000522</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1525,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1544,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1560,98 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1812,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1975,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2130,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2174,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2231,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2253,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2262,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44264.34217264556</v>
+        <v>17848.48686563705</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>203945.216434963</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>248209.5586076086</v>
+        <v>221793.7033006001</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4684800580296</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.0401857277142</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2290,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2299,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>97990.49352139627</v>
+        <v>39512.21120043592</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>407890.432869926</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>505880.9263913223</v>
+        <v>447402.644070362</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.8980712271702</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.1949989412001</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2327,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2336,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>180147.1010045246</v>
+        <v>72639.80459984945</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>611835.649304889</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>791982.7503094136</v>
+        <v>684475.4539047384</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.3276623963109</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.4772297513395</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2364,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2373,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>290734.1646220305</v>
+        <v>117231.2670638776</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>815780.8657398521</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1106515.030361883</v>
+        <v>933012.1328037297</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.7572535654515</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.8868781581323</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2401,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2410,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>50311.54142671245</v>
+        <v>20286.86844237274</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>191187.4551317326</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>241498.996558445</v>
+        <v>211474.3235741053</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.379052204727</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.0880571982989</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2438,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2447,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>111377.5226794717</v>
+        <v>44910.19527452138</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>382374.9102634652</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>493752.4329429369</v>
+        <v>427285.1055379866</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7192155205651</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.2226334705202</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2475,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2484,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>204758.0036260503</v>
+        <v>82563.53441556629</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>573562.3653951978</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>778320.3690212481</v>
+        <v>656125.899810764</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.0593788364033</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.5025527165649</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2512,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2521,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>330452.9842664484</v>
+        <v>133246.8858655075</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>764749.8205269304</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1095202.804793379</v>
+        <v>897996.7063924379</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.3995421522414</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.9278149364331</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2549,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2558,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49861.68129502652</v>
+        <v>20105.47361625168</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>174064.3724922882</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>223926.0537873147</v>
+        <v>194169.8461085398</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.2590248358202</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.0863391020022</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2586,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2595,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>110381.6417026898</v>
+        <v>44508.63122406058</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>348128.7449845763</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>458510.3866872661</v>
+        <v>392637.3762086369</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.4791607827515</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.1448452331749</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2623,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2632,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>202927.1620365685</v>
+        <v>81825.2934193379</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>522193.1174768645</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>725120.279513433</v>
+        <v>604018.4108962024</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.6992967296829</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.347859103279</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2660,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2669,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>327498.2422966628</v>
+        <v>132055.4602020836</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>696257.4899691526</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1023755.732265815</v>
+        <v>828312.9501712362</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>281.9194326766142</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.6953807123148</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2697,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2706,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43781.33219663555</v>
+        <v>17653.72519541587</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>152575.9685166297</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>196357.3007132653</v>
+        <v>170229.6937120456</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.1083979513092</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.038878901159</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2734,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2743,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>96921.2268475491</v>
+        <v>39081.05620643223</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>305151.9370332594</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>402073.1638808085</v>
+        <v>344232.9932396917</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.1779070137295</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>314.9701225561651</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2771,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2780,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>178181.3461177788</v>
+        <v>71847.16319697266</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>457727.9055498891</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>635909.2516676679</v>
+        <v>529575.0687468618</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.2474160761498</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.0286620859319</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2808,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2817,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>287561.6900073246</v>
+        <v>115952.0461670371</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>610303.8740665189</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>897865.5640738434</v>
+        <v>726255.920233556</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.31692513857</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.2144974904595</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2845,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2854,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>43624.79368938383</v>
+        <v>17590.60496469492</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>222081.5680184816</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>265706.3617078654</v>
+        <v>239672.1729831765</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.4878963527761</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.1186016556759</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2882,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2891,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>96574.68864483798</v>
+        <v>38941.32335927036</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>444163.1360369632</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>540737.8246818011</v>
+        <v>483104.4593962335</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.0480149277744</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.3512181093336</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2919,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2928,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>177544.2654136991</v>
+        <v>71590.27636615145</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>666244.7040554448</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>843788.9694691439</v>
+        <v>737834.9804215962</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.6081335027727</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.7094111805025</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2956,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2965,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>286533.5239959673</v>
+        <v>115537.4639853382</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>888326.2720739264</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1174859.796069894</v>
+        <v>1003863.736059265</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.1682520777711</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.1931808691827</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2993,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +3002,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52415.21881077006</v>
+        <v>21135.12363641679</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>214273.1875692636</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>266688.4063800336</v>
+        <v>235408.3112056804</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4330426362422</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.2013532037149</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3030,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3039,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>116034.5530329239</v>
+        <v>46788.02607503944</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>428546.3751385271</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>544580.9281714511</v>
+        <v>475334.4012135666</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.9383074947067</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.4512480157392</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3067,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3076,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>213319.5537041842</v>
+        <v>86015.76496093515</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>642819.5627077906</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>856139.1164119749</v>
+        <v>728835.3276687257</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.4435723531712</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.8525630299583</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3104,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3113,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>344270.2208245511</v>
+        <v>138818.340294104</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>857092.7502770543</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1201362.971101605</v>
+        <v>995911.0905711582</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.9488372116356</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.4052982463722</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3141,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3150,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>54565.09974500503</v>
+        <v>22002.00925436436</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>202099.4857838315</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>256664.5855288365</v>
+        <v>224101.4950381958</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3475226246024</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.2340639570494</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3178,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3187,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>120793.8668150254</v>
+        <v>48707.10010528174</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>404198.971567663</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>524992.8383826884</v>
+        <v>452906.0716729447</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.767267471427</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.4448315189811</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3215,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3224,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>222069.143075619</v>
+        <v>89543.81763969561</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>606298.4573514945</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>828367.6004271135</v>
+        <v>695842.2749911901</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1870123182516</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.8137381364747</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3252,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3261,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>358390.928526786</v>
+        <v>144512.1618576059</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>808397.9431353259</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>1166788.871662112</v>
+        <v>952910.1049929318</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.6067571650761</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3407838095302</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3289,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3298,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>50575.20823139929</v>
+        <v>20393.18547475971</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>185560.4626621854</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>236135.6708935847</v>
+        <v>205953.6481369452</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2313363178565</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.2189493841374</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3326,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3335,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>111961.216891298</v>
+        <v>45145.5553400273</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>371120.9253243709</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>483082.1422156689</v>
+        <v>416266.4806643982</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.5348948579352</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.336837577123</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3363,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3372,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>205831.0752716246</v>
+        <v>82996.22366907912</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>556681.3879865563</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>762512.4632581809</v>
+        <v>639677.6116556354</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.8384533980138</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.6017750957002</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3400,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3409,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>332184.7833723788</v>
+        <v>133945.1904619152</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>742241.8506487417</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1074426.634021121</v>
+        <v>876187.0411106569</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.1420119380925</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.0137619398693</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3437,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3446,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>41666.37868725647</v>
+        <v>16800.92318637769</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>229100.5112279259</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>270766.8899151824</v>
+        <v>245901.4344143036</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.4291017856205</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.1412815711485</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3474,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3483,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>92239.23389370512</v>
+        <v>37193.15986278495</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>458201.0224558519</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>550440.2563495571</v>
+        <v>495394.1823186369</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.0415369045743</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.3947017776559</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3511,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3520,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>169573.9044441185</v>
+        <v>68376.42801559674</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>687301.5336837778</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>856875.4381278963</v>
+        <v>755677.9616993745</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.6539720235281</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.768061185177</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3548,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3557,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>273670.3903384967</v>
+        <v>110350.7276448131</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>916402.0449117038</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1190072.4352502</v>
+        <v>1026752.772556517</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.266407142482</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.2613597937117</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3585,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3594,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>52515.70884224651</v>
+        <v>21175.64372366759</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>226241.5116327202</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>278757.2204749667</v>
+        <v>247417.1553563878</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.4089798254918</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.255635873962</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3622,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3631,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>116257.0135348772</v>
+        <v>46877.72769834042</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>452483.0232654404</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>568740.0368003176</v>
+        <v>499360.7509637809</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>288.001292984317</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.5599099701657</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3659,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3668,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>213728.5282186982</v>
+        <v>86180.67368638761</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>678724.5348981606</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>892453.0631168588</v>
+        <v>764905.2085845482</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.5936061431422</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.015894570145</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3696,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3705,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>344930.2528937095</v>
+        <v>139084.4816878092</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>904966.0465308808</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>1249896.29942459</v>
+        <v>1044050.52821869</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.1859193019673</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.6235896739001</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3733,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3742,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>56849.22581721563</v>
+        <v>22923.02586046912</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>219017.1907013005</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>275866.4165185161</v>
+        <v>241940.2165617696</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.3581342437078</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.320707662454</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3770,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3779,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>125850.3666994701</v>
+        <v>50746.00698481016</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>438034.3814026009</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>563884.748102071</v>
+        <v>488780.3883874111</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.8996018207488</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.6203220318473</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3807,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3816,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>231365.0835559426</v>
+        <v>93292.17271339493</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>657051.5721039013</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>888416.6556598439</v>
+        <v>750343.7448172963</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.4410693977899</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.0846952475026</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3844,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3853,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>373393.376386633</v>
+        <v>150561.5230462234</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>876068.7628052018</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1249462.139191835</v>
+        <v>1026630.285851425</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.982536974831</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.7138273094199</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3881,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3890,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>54801.90267173703</v>
+        <v>22097.49410108444</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>207427.5484336667</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>262229.4511054037</v>
+        <v>229525.0425347511</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2765650402682</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.3370718608547</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3918,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3927,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>121318.0909312965</v>
+        <v>48918.48034487554</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>414855.0968673334</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>536173.1877986299</v>
+        <v>463773.5772122089</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.7364634138698</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.5771724670799</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3955,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3964,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>223032.8840613941</v>
+        <v>89932.42204410293</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>622282.6453010001</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>845315.5293623942</v>
+        <v>712215.067345103</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>289.1963617874714</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>316.9766116724099</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3992,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +4001,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>359946.28206203</v>
+        <v>145139.3191987667</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>829710.1937346668</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1189656.475796697</v>
+        <v>974849.5129334335</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.656260161073</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.5353894768447</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4029,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4038,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>39002.0621722381</v>
+        <v>15726.604310504</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>225002.0460632962</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>264004.1082355343</v>
+        <v>240728.6503738002</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.2917686362842</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.1109726171085</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4066,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4075,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>86341.08478791772</v>
+        <v>34814.87902364776</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>450004.0921265924</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>536345.1769145101</v>
+        <v>484818.9711502401</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.877981717013</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.331531452925</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4103,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4112,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>158730.6642019615</v>
+        <v>64004.16308306405</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>675006.1381898886</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>833736.80239185</v>
+        <v>739010.3012729526</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.4641947977416</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.6643600928909</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4140,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4149,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>256170.8004143694</v>
+        <v>103294.4564887528</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>900008.1842531847</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>1156178.984667554</v>
+        <v>1003302.640741938</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.0504078784703</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.1094585370058</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4177,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4186,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>51246.58469586084</v>
+        <v>20663.90121161856</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>227092.4273221028</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>278339.0120179636</v>
+        <v>247756.3285337214</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.3065053471473</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.253754871273</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4214,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4223,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>113447.4811812911</v>
+        <v>45744.85417418461</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>454184.8546442056</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>567632.3358254967</v>
+        <v>499929.7088183902</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.9074551387391</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.5549277932694</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4251,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4260,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>208563.4444387452</v>
+        <v>84097.98307174259</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>681277.2819663084</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>889840.7264050536</v>
+        <v>765375.2650380509</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.5084049303308</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>299.0041448977095</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4288,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4297,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>336594.4744682232</v>
+        <v>135723.2879042925</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>908369.7092884112</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>1244964.183756634</v>
+        <v>1044092.997192704</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>295.1093547219226</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.601406184593</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4325,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4334,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>57368.24085512169</v>
+        <v>23132.30566973417</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>224817.4872446954</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>282185.7280998171</v>
+        <v>247949.7929144296</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.2904675387283</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.3492220562795</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4362,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4371,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>126999.339828023</v>
+        <v>51209.30160949838</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>449634.9744893909</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>576634.3143174138</v>
+        <v>500844.2760988892</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.875379521901</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.677851423695</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4399,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4408,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>233477.3719096665</v>
+        <v>94143.900065195</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>674452.4617340863</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>907929.8336437527</v>
+        <v>768596.3617992813</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.4602915050737</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.1727438323304</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4436,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4445,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>376802.3371000522</v>
+        <v>151936.1010368241</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>899269.9489787817</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>1276072.286078834</v>
+        <v>1051206.050015606</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>295.0452034882463</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.8338992821859</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4473,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4482,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>57136.20502985652</v>
+        <v>23038.74303723307</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>218177.225831074</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>275313.4308609305</v>
+        <v>241215.9688683071</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.2436552110271</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.3963009982773</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4510,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4519,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>126485.668915583</v>
+        <v>51002.17668492172</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>436354.4516621481</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>562840.1205777311</v>
+        <v>487356.6283470698</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.7817548664987</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.6978895161525</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4547,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4556,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>232533.0320821892</v>
+        <v>93763.11869174351</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>654531.6774932221</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>887064.7095754113</v>
+        <v>748294.7961849655</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>293.3198545219702</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.1656037052869</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4584,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.05326998801545408</v>
+        <v>0.04343756662329204</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4593,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>375278.294529675</v>
+        <v>151321.5690576984</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>872708.9033242961</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>1247987.197853971</v>
+        <v>1024030.472381995</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.8579541774417</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.7994435656805</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4793,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.03390460960124702</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.03390460960124702</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.03390460960124702</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.03390460960124702</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.04343756662329204</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.04343756662329204</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.04343756662329204</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.04343756662329204</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>